--- a/Assets/Texts/Texts.xlsx
+++ b/Assets/Texts/Texts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marro\Documents\GitHub\HeroAuditing\Assets\Texts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1127FE7-EC59-4EA9-9728-9BCB4A162FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A0422B-1A95-4690-92B9-4B0F4363B7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A92B82CA-84D7-4871-BE57-FF21B6B2E3C0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A92B82CA-84D7-4871-BE57-FF21B6B2E3C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="313">
   <si>
     <t>ESP</t>
   </si>
@@ -966,6 +966,66 @@
   </si>
   <si>
     <t>PRISIONERO: FUCKIN KING, AYE!. Wha votit for him? A surely didn't, A wis trappit here!!</t>
+  </si>
+  <si>
+    <t>GOBLINS ÉXITOS</t>
+  </si>
+  <si>
+    <t>GOBLINS FRACASO</t>
+  </si>
+  <si>
+    <t>«¡No sois rival para mi bravura!»</t>
+  </si>
+  <si>
+    <t>«No debí subestimarlos».</t>
+  </si>
+  <si>
+    <t>«A veces se me olvida lo escurridizos que son».</t>
+  </si>
+  <si>
+    <t>«Eso dolió».</t>
+  </si>
+  <si>
+    <t>#F1_Hgob_S01</t>
+  </si>
+  <si>
+    <t>#F1_Hgob_S02</t>
+  </si>
+  <si>
+    <t>«Morid, malditos»</t>
+  </si>
+  <si>
+    <t>«¡Volved al infierno del que salisteis!»</t>
+  </si>
+  <si>
+    <t>#F1_Hgob_S03</t>
+  </si>
+  <si>
+    <t>#F1_Hgob_F01</t>
+  </si>
+  <si>
+    <t>#F1_Hgob_F02</t>
+  </si>
+  <si>
+    <t>#F1_Hgob_F03</t>
+  </si>
+  <si>
+    <t>"Die, you cowards!"</t>
+  </si>
+  <si>
+    <t>"You are no rival to my bravery!"</t>
+  </si>
+  <si>
+    <t>"Come back to hell you came from!"</t>
+  </si>
+  <si>
+    <t>"I shouldn't have underestimated them."</t>
+  </si>
+  <si>
+    <t>"Sometimes I forget how slippery they are."</t>
+  </si>
+  <si>
+    <t>"Ouch, that hurt"</t>
   </si>
 </sst>
 </file>
@@ -1037,11 +1097,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1052,7 +1112,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1106,7 +1166,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1122,48 +1182,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{430F41CE-8D11-4588-AB14-FAD1300FB781}" name="Tabla2" displayName="Tabla2" ref="A1:C4" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{430F41CE-8D11-4588-AB14-FAD1300FB781}" name="Tabla2" displayName="Tabla2" ref="A1:C4" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:C4" xr:uid="{430F41CE-8D11-4588-AB14-FAD1300FB781}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7F563443-CF3D-441F-B3FC-DDC2989B6985}" name="ID" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{78865998-EC52-4C56-9A04-6622A9AF6FB5}" name="ESP2" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{F2130385-BCAE-4446-BE2E-F14BAA17B9DD}" name="ENG" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{7F563443-CF3D-441F-B3FC-DDC2989B6985}" name="ID" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{78865998-EC52-4C56-9A04-6622A9AF6FB5}" name="ESP2" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{F2130385-BCAE-4446-BE2E-F14BAA17B9DD}" name="ENG" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF4A900D-949A-4776-9EEB-08D3097024FF}" name="Tabla1" displayName="Tabla1" ref="A1:C42" totalsRowShown="0">
-  <autoFilter ref="A1:C42" xr:uid="{FF4A900D-949A-4776-9EEB-08D3097024FF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF4A900D-949A-4776-9EEB-08D3097024FF}" name="Tabla1" displayName="Tabla1" ref="A1:C50" totalsRowShown="0">
+  <autoFilter ref="A1:C50" xr:uid="{FF4A900D-949A-4776-9EEB-08D3097024FF}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6967BB4A-30C2-43B6-9CB2-28E7189BA6E3}" name="ESP" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{7E2A380B-189B-40FA-A9F1-7C8D445FF207}" name="ESP2" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{43E3BF63-9BF4-4AC8-B8F8-674E6D06910D}" name="ENG" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{6967BB4A-30C2-43B6-9CB2-28E7189BA6E3}" name="ESP" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{7E2A380B-189B-40FA-A9F1-7C8D445FF207}" name="ESP2" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{43E3BF63-9BF4-4AC8-B8F8-674E6D06910D}" name="ENG" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{286C4389-7C8C-4B9E-B4B9-9F82B2FD62A6}" name="Tabla3" displayName="Tabla3" ref="A1:C10" totalsRowShown="0" headerRowDxfId="12" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{286C4389-7C8C-4B9E-B4B9-9F82B2FD62A6}" name="Tabla3" displayName="Tabla3" ref="A1:C10" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:C10" xr:uid="{286C4389-7C8C-4B9E-B4B9-9F82B2FD62A6}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{15CB8B6B-B6FB-4304-ABDA-AE8254F6C792}" name="ID" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{AE1AA87D-06B0-4D7D-A3FE-230B3D442450}" name="ESP" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{ECA1BE4B-B0B2-494D-999B-67074995A330}" name="ENG" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{15CB8B6B-B6FB-4304-ABDA-AE8254F6C792}" name="ID" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{AE1AA87D-06B0-4D7D-A3FE-230B3D442450}" name="ESP" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{ECA1BE4B-B0B2-494D-999B-67074995A330}" name="ENG" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6BEF665A-6D46-419E-8D30-7941B6E47772}" name="Tabla4" displayName="Tabla4" ref="A1:C23" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6BEF665A-6D46-419E-8D30-7941B6E47772}" name="Tabla4" displayName="Tabla4" ref="A1:C23" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:C23" xr:uid="{6BEF665A-6D46-419E-8D30-7941B6E47772}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4548EBBF-AD72-47DF-A0E1-F13E9938E4BE}" name="ID" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{BC762B95-9229-4621-B9AA-CEA800FFED28}" name="ESP" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{5B2FECB2-5AE3-4BD9-B4C1-6DF533A65A1C}" name="ENG" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{4548EBBF-AD72-47DF-A0E1-F13E9938E4BE}" name="ID" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{BC762B95-9229-4621-B9AA-CEA800FFED28}" name="ESP" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{5B2FECB2-5AE3-4BD9-B4C1-6DF533A65A1C}" name="ENG" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1174,8 +1234,8 @@
   <autoFilter ref="A1:C23" xr:uid="{FB449534-BC40-434A-ADF4-6DC749DE82A8}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{18C7102A-848D-4628-9A69-1C4A1C625D46}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{5C472F6A-4C8C-4564-9522-87D0FAD45731}" name="ESP" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{4D2792A8-85EA-4DDA-825C-3D661B9BBAFC}" name="ENG" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{5C472F6A-4C8C-4564-9522-87D0FAD45731}" name="ESP" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{4D2792A8-85EA-4DDA-825C-3D661B9BBAFC}" name="ENG" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1565,10 +1625,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFE032D-95F9-43DF-A48A-41082064777A}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1608,7 +1668,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>120</v>
       </c>
@@ -1827,7 +1887,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>129</v>
       </c>
@@ -1879,7 +1939,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>133</v>
       </c>
@@ -1942,7 +2002,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>138</v>
       </c>
@@ -2014,6 +2074,82 @@
       </c>
       <c r="C42" s="2" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -2029,14 +2165,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D51C646-84B6-4AFD-9113-8CA397437E41}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="53.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="53.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="41.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2044,7 +2180,7 @@
       <c r="A1" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -2052,7 +2188,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>271</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2060,7 +2196,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>272</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2068,7 +2204,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>286</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2076,7 +2212,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>274</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2084,7 +2220,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>273</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2092,7 +2228,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>275</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2100,7 +2236,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>276</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -2108,7 +2244,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>277</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2116,7 +2252,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>279</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2124,7 +2260,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>280</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2132,7 +2268,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C12" s="2" t="s">

--- a/Assets/Texts/Texts.xlsx
+++ b/Assets/Texts/Texts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marro\Documents\GitHub\HeroAuditing\Assets\Texts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A0422B-1A95-4690-92B9-4B0F4363B7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BE7DD7-A3EC-424F-ADE1-2D05EF7EA9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A92B82CA-84D7-4871-BE57-FF21B6B2E3C0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="5" xr2:uid="{A92B82CA-84D7-4871-BE57-FF21B6B2E3C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Fase 1 Diálogo Héroe" sheetId="7" r:id="rId3"/>
     <sheet name="Intro Fase 2 - Diálogo" sheetId="3" r:id="rId4"/>
     <sheet name="Fase 2 Auditor Frases" sheetId="4" r:id="rId5"/>
-    <sheet name="Fase 2 Auditor Grublin" sheetId="5" r:id="rId6"/>
+    <sheet name="Fase 2 Auditor Prisionero" sheetId="8" r:id="rId6"/>
+    <sheet name="Fase 2 Auditor Grublin" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="385">
   <si>
     <t>ESP</t>
   </si>
@@ -67,21 +68,12 @@
     <t>«Pasé raudo y veloz por las cuchillas, sin que me rozasen».</t>
   </si>
   <si>
-    <t>FOSO DE PINCHOS</t>
-  </si>
-  <si>
-    <t>PÉNDULO DE CUCHILLAS</t>
-  </si>
-  <si>
     <t>«Cuando decía que necesitaba un corte no me refería a esto».</t>
   </si>
   <si>
     <t>«Fue una caricia, una caricia dolorosa».</t>
   </si>
   <si>
-    <t>PARED DE FLECHAS</t>
-  </si>
-  <si>
     <t>«Ni las flechas más certeras pudieron pararme»</t>
   </si>
   <si>
@@ -100,9 +92,6 @@
     <t>«La humillación es la más venenosa de las flechas»</t>
   </si>
   <si>
-    <t>LLUVIA DE SLIME</t>
-  </si>
-  <si>
     <t>«Prefiero que me lluevan los elogios, gracias».</t>
   </si>
   <si>
@@ -121,9 +110,6 @@
     <t>«Aún me estoy sacando slime de la ropa interior».</t>
   </si>
   <si>
-    <t>ABRIR COFRE</t>
-  </si>
-  <si>
     <t>«La curiosidad de saber qué albergaba en su interior me pudo».</t>
   </si>
   <si>
@@ -169,9 +155,6 @@
     <t>HÉROE: ¿Cómo?</t>
   </si>
   <si>
-    <t>SPIKE TRAP</t>
-  </si>
-  <si>
     <t>"I jumped over the spike trap without getting no harm!"</t>
   </si>
   <si>
@@ -187,9 +170,6 @@
     <t>"I still have marks on my armour!"</t>
   </si>
   <si>
-    <t>PENDULUM TRAP</t>
-  </si>
-  <si>
     <t>"I thought I was fast, but knives were faster"</t>
   </si>
   <si>
@@ -199,9 +179,6 @@
     <t>"I felt it like a caress on my skin… Well, a painful one"</t>
   </si>
   <si>
-    <t>ARROW WALL</t>
-  </si>
-  <si>
     <t>"Not even the best-aimed arrows could stop me"</t>
   </si>
   <si>
@@ -220,9 +197,6 @@
     <t>"Humilliation is the most poisonous of arrows"</t>
   </si>
   <si>
-    <t>SLIME RAIN</t>
-  </si>
-  <si>
     <t>"I prefer to be showered with praise, thank you".</t>
   </si>
   <si>
@@ -241,9 +215,6 @@
     <t>"I am still removing slime from my underwear"</t>
   </si>
   <si>
-    <t>OPEN A CHEST</t>
-  </si>
-  <si>
     <t>"The curiosity of knowing what was inside was stronger than myself".</t>
   </si>
   <si>
@@ -289,9 +260,6 @@
     <t>HERO: Sorry, what?</t>
   </si>
   <si>
-    <t>INTRO</t>
-  </si>
-  <si>
     <t>AUDITOR: Hi there, I'm the Feat Auditor…</t>
   </si>
   <si>
@@ -334,15 +302,6 @@
     <t>AUDITOR: Mmm… ¿solo a un amigo?</t>
   </si>
   <si>
-    <t>GRUBLIN THE CLEANING GOBLIN</t>
-  </si>
-  <si>
-    <t>GRUBLIN EL GOBLIN DE LA LIMPIEZA</t>
-  </si>
-  <si>
-    <t>COLOCAR BANDERITA</t>
-  </si>
-  <si>
     <t>“Esto me resulta extraño…”</t>
   </si>
   <si>
@@ -355,9 +314,6 @@
     <t>“Aquí hay gato encerrado…”</t>
   </si>
   <si>
-    <t>RETIRAR BANDERITA</t>
-  </si>
-  <si>
     <t>“Mmm me lo tengo que pensar mejor”</t>
   </si>
   <si>
@@ -370,27 +326,12 @@
     <t xml:space="preserve">“Mejor dejarlo como estaba…” </t>
   </si>
   <si>
-    <t>PINCHOS</t>
-  </si>
-  <si>
     <t>"Prefiero los pinchos de pollo, gracias"</t>
   </si>
   <si>
-    <t>PÉNDULOS</t>
-  </si>
-  <si>
     <t>"Sí que maneja presupuesto esta gente"</t>
   </si>
   <si>
-    <t>SLIME</t>
-  </si>
-  <si>
-    <t>FLECHAS</t>
-  </si>
-  <si>
-    <t>ARROW</t>
-  </si>
-  <si>
     <t>"I bet he took a bow after his perfomance…"</t>
   </si>
   <si>
@@ -398,108 +339,6 @@
   </si>
   <si>
     <t>ESP2</t>
-  </si>
-  <si>
-    <t>#F1_Hspike_S01</t>
-  </si>
-  <si>
-    <t>#F1_Hspike_S02</t>
-  </si>
-  <si>
-    <t>#F1_Hspike_F01</t>
-  </si>
-  <si>
-    <t>#F1_Hspike_F02</t>
-  </si>
-  <si>
-    <t>#F1_Hspike_F03</t>
-  </si>
-  <si>
-    <t>#F1_Hpen_F02</t>
-  </si>
-  <si>
-    <t>#F1_Hpen_F03</t>
-  </si>
-  <si>
-    <t>#F1_Harrow_S01</t>
-  </si>
-  <si>
-    <t>#F1_Harrow_S02</t>
-  </si>
-  <si>
-    <t>#F1_Harrow_S03</t>
-  </si>
-  <si>
-    <t>#F1_Harrow_F01</t>
-  </si>
-  <si>
-    <t>#F1_Harrow_F02</t>
-  </si>
-  <si>
-    <t>#F1_Harrow_F03</t>
-  </si>
-  <si>
-    <t>#F1_Hslime_S01</t>
-  </si>
-  <si>
-    <t>#F1_Hslime_S02</t>
-  </si>
-  <si>
-    <t>#F1_Hslime_S03</t>
-  </si>
-  <si>
-    <t>#F1_Hslime_F01</t>
-  </si>
-  <si>
-    <t>#F1_Hslime_F02</t>
-  </si>
-  <si>
-    <t>#F1_Hslime_F03</t>
-  </si>
-  <si>
-    <t>#F1_HChest_01</t>
-  </si>
-  <si>
-    <t>#F1_HChest_02</t>
-  </si>
-  <si>
-    <t>#F1_HChest_03</t>
-  </si>
-  <si>
-    <t>#F1_Hpic_01</t>
-  </si>
-  <si>
-    <t>#F1_Hpic_02</t>
-  </si>
-  <si>
-    <t>#F1_Hpic_03</t>
-  </si>
-  <si>
-    <t>#F2_H01</t>
-  </si>
-  <si>
-    <t>#F2_F01</t>
-  </si>
-  <si>
-    <t>#F2_H02</t>
-  </si>
-  <si>
-    <t>#F2_H03</t>
-  </si>
-  <si>
-    <t>#F2_H04</t>
-  </si>
-  <si>
-    <t>#F2_H05</t>
-  </si>
-  <si>
-    <t>#F2_F02</t>
-  </si>
-  <si>
-    <t>#F2_F03</t>
-  </si>
-  <si>
-    <t>#F2_F04</t>
   </si>
   <si>
     <r>
@@ -581,9 +420,6 @@
     <t xml:space="preserve">Vale, vale. Grublin no juzga, a cada cual a lo suyo. </t>
   </si>
   <si>
-    <t xml:space="preserve">GRUBLIN: Oh, only heros’ feet. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ok, Grublin don’t judge, no kinkshaming. </t>
   </si>
   <si>
@@ -632,90 +468,12 @@
     <t xml:space="preserve">He owed Grublin five shiny rockies, that bastard… </t>
   </si>
   <si>
-    <t>#F3_Grub01_01</t>
-  </si>
-  <si>
-    <t>#F3_Grub01_02</t>
-  </si>
-  <si>
-    <t>#F3_Grub01_03</t>
-  </si>
-  <si>
-    <t>#F3_Grub01_04</t>
-  </si>
-  <si>
-    <t>#F3_Au01</t>
-  </si>
-  <si>
-    <t>#F3_Grub02</t>
-  </si>
-  <si>
-    <t>#F3_Au02</t>
-  </si>
-  <si>
-    <t>#F3_Grub03_01</t>
-  </si>
-  <si>
-    <t>#F3_Grub03_02</t>
-  </si>
-  <si>
-    <t>#F3_Grub03_03</t>
-  </si>
-  <si>
-    <t>#F3_Grub03_04</t>
-  </si>
-  <si>
-    <t>#F3_Grub03_05</t>
-  </si>
-  <si>
-    <t>#F3_Au03</t>
-  </si>
-  <si>
-    <t>#F3_Grub04_01</t>
-  </si>
-  <si>
-    <t>#F3_Grub04_02</t>
-  </si>
-  <si>
-    <t>#F3_Grub04_03</t>
-  </si>
-  <si>
-    <t>#F3_Au04</t>
-  </si>
-  <si>
-    <t>#F3_Grub05_01</t>
-  </si>
-  <si>
-    <t>#F3_Grub05_02</t>
-  </si>
-  <si>
-    <t>#F3_Au05</t>
-  </si>
-  <si>
-    <t>#F3_Grub06</t>
-  </si>
-  <si>
-    <t>#F3_Au06</t>
-  </si>
-  <si>
-    <t>#F1_Hpen_S01_02</t>
-  </si>
-  <si>
-    <t>#F1_Hpen_S01_01</t>
-  </si>
-  <si>
     <t xml:space="preserve">"I run through the knives as swiftly </t>
   </si>
   <si>
     <t>as the wind without they even got to touch me!"</t>
   </si>
   <si>
-    <t>#F1_Hpen_S02_01</t>
-  </si>
-  <si>
-    <t>#F1_Hpen_S02_02</t>
-  </si>
-  <si>
     <t xml:space="preserve">"Knives danced right in front of my eyes… </t>
   </si>
   <si>
@@ -728,12 +486,6 @@
     <t>pero no hay mejor bailarín que yo».</t>
   </si>
   <si>
-    <t>#F1_Hpen_S03_01</t>
-  </si>
-  <si>
-    <t>#F1_Hpen_S03_02</t>
-  </si>
-  <si>
     <t xml:space="preserve">«No mentiré, sentí miedo… </t>
   </si>
   <si>
@@ -746,12 +498,6 @@
     <t>Afraid of getting bored with such a childlish trap"</t>
   </si>
   <si>
-    <t>#F1_Hpen_F01_01</t>
-  </si>
-  <si>
-    <t>#F1_Hpen_F01_02</t>
-  </si>
-  <si>
     <t xml:space="preserve">«Pensé que era rápido, </t>
   </si>
   <si>
@@ -776,48 +522,6 @@
     <t xml:space="preserve"> This dungeon is long as damn big. Let's see what our "hero" has done. </t>
   </si>
   <si>
-    <t>#F3_AU01_01</t>
-  </si>
-  <si>
-    <t>#F3_AU01_02</t>
-  </si>
-  <si>
-    <t>#F3_AUPFlag_01</t>
-  </si>
-  <si>
-    <t>#F3_AUPFlag_02</t>
-  </si>
-  <si>
-    <t>#F3_AUPFlag_03</t>
-  </si>
-  <si>
-    <t>#F3_AUPFlag_04</t>
-  </si>
-  <si>
-    <t>#F3_AUQFlag_01</t>
-  </si>
-  <si>
-    <t>#F3_AUQFlag_02</t>
-  </si>
-  <si>
-    <t>#F3_AUQFlag_03</t>
-  </si>
-  <si>
-    <t>#F3_AUQFlag_04</t>
-  </si>
-  <si>
-    <t>#F3_Auspike_01</t>
-  </si>
-  <si>
-    <t>#F3_Aupend_01</t>
-  </si>
-  <si>
-    <t>#F3_Auslime_01</t>
-  </si>
-  <si>
-    <t>#F3_Auarrow_01</t>
-  </si>
-  <si>
     <t>HERO: Por fin llegué al Cript of the Cursed Goblin.</t>
   </si>
   <si>
@@ -836,21 +540,6 @@
     <t xml:space="preserve"> and I was gobbled by its wicked darkness</t>
   </si>
   <si>
-    <t>#F1_HIntro_01</t>
-  </si>
-  <si>
-    <t>#F1_HIntro_02</t>
-  </si>
-  <si>
-    <t>#F1_HIntro_03</t>
-  </si>
-  <si>
-    <t>#F1_Hspike_S03_01</t>
-  </si>
-  <si>
-    <t>#F1_Hspike_S03_02</t>
-  </si>
-  <si>
     <t xml:space="preserve">«En el foso me aguardaba la muerte, </t>
   </si>
   <si>
@@ -905,12 +594,6 @@
     <t xml:space="preserve">PRISIONERO: ¡Eh! ¿Qué pasa aquí? ¿Tú quién eres?  </t>
   </si>
   <si>
-    <t>HÉROE: ¡Saludos, amable prisionero! He venido a recorrer esta mazmorra y poner fin al malvado reino del terror del rey Goblin que aquí mora. Daré por finalizado su vil régimen en cuanto mi hoja atraviese su…</t>
-  </si>
-  <si>
-    <t>PRISIONERO: Anda, vaya, meeeenos mal, el señorito ha venido a rescatarme, qué bien. Solo han tardado CINCUENTA AÑOS en enviarme a alguien, ¿en esto se van mis impuestos? Esto es indignante…</t>
-  </si>
-  <si>
     <t>HÉROE: No se preocupe, voy a rescatarle y…</t>
   </si>
   <si>
@@ -920,60 +603,30 @@
     <t xml:space="preserve">PRISIONERO:  No, si ya sé a lo que ha venido, a por el cetrito ese, ¿eh? </t>
   </si>
   <si>
-    <t>HÉROE: Sí, el cetro del rey…</t>
-  </si>
-  <si>
     <t>HERO: Yes, de scentre of the f…</t>
   </si>
   <si>
-    <t>PRISIONERO: ¡CABRÓN! ¿Quién lo ha votado? ¡Yo desde luego no, que estaba aquí!</t>
-  </si>
-  <si>
     <t>HERO: Mire, ¿quiere que lo rescate o no?</t>
   </si>
   <si>
     <t>HERO: You want me to rescue you or not?</t>
   </si>
   <si>
-    <t>PRISIONER: Pretty please. Thank you.</t>
-  </si>
-  <si>
     <t>PRISIONERO: Por favor y gracias.</t>
   </si>
   <si>
     <t>PRISONER: Oi! wha's thare? wha are ye?</t>
   </si>
   <si>
-    <t>HERO: Greeting, friendly prisoner! I came to go down this dungeon and put an end to the reign of terror of the Goblin king! I will end up his evil regime the moment my sword…</t>
-  </si>
-  <si>
-    <t>PRISIONERO: ¡Que sí, que sí, que eres un héroe muy guay! ¡Ya era hora, eh! Mucho discursito, mucho discursito, pero aquí rescatar poquito, ¿eh?  Llevo siglos aquí, rodeado de malolientes goblins. En cuanto salga voy a poner una queja en el Departamento de Asuntos Heroicos, porque esto no es ni medio normal…</t>
-  </si>
-  <si>
-    <t>PRISONER: Ay, ay, we know, ye are a cool knicht! it wis aboot time, huh! aw talk an na action, huh? A'v been here for ages, surroundit bi pongy goblins. The moment A put a foot ootside this dungeon, A am gaun'ae complaint tae the department o heroic affairs...</t>
-  </si>
-  <si>
     <t>HERO: Do not fear, I am going to take you out of this…</t>
   </si>
   <si>
-    <t>PRISONER: Oh, wow, lucky me this knicht i shiny armour has decidit tae rescue me, it  only took fifty years tae send someone. Is here where aw ma taxes are gang? it's outrageous!</t>
-  </si>
-  <si>
     <t>HERO: But I came here for…</t>
   </si>
   <si>
     <t>PRISONER: A know exactly why ye came. Ye are here for thon wee scepter, am A richt?</t>
   </si>
   <si>
-    <t>PRISIONERO: FUCKIN KING, AYE!. Wha votit for him? A surely didn't, A wis trappit here!!</t>
-  </si>
-  <si>
-    <t>GOBLINS ÉXITOS</t>
-  </si>
-  <si>
-    <t>GOBLINS FRACASO</t>
-  </si>
-  <si>
     <t>«¡No sois rival para mi bravura!»</t>
   </si>
   <si>
@@ -986,30 +639,12 @@
     <t>«Eso dolió».</t>
   </si>
   <si>
-    <t>#F1_Hgob_S01</t>
-  </si>
-  <si>
-    <t>#F1_Hgob_S02</t>
-  </si>
-  <si>
     <t>«Morid, malditos»</t>
   </si>
   <si>
     <t>«¡Volved al infierno del que salisteis!»</t>
   </si>
   <si>
-    <t>#F1_Hgob_S03</t>
-  </si>
-  <si>
-    <t>#F1_Hgob_F01</t>
-  </si>
-  <si>
-    <t>#F1_Hgob_F02</t>
-  </si>
-  <si>
-    <t>#F1_Hgob_F03</t>
-  </si>
-  <si>
     <t>"Die, you cowards!"</t>
   </si>
   <si>
@@ -1026,22 +661,596 @@
   </si>
   <si>
     <t>"Ouch, that hurt"</t>
+  </si>
+  <si>
+    <t>PRISIONER: Pretty please. Thank ye.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HÉROE: ¡Saludos, amable prisionero! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He venido a recorrer esta mazmorra y poner fin al malvado reino del terror del rey Goblin que aquí mora. </t>
+  </si>
+  <si>
+    <t>Daré por finalizado su vil régimen en cuanto mi hoja atraviese su…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERO: Greetings, friendly prisoner! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I came to go down this dungeon and put an end to the reign of terror of the Goblin king! </t>
+  </si>
+  <si>
+    <t>I will end up his evil regime the moment my sword…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRISIONERO: ¡Que sí, que sí, que eres un héroe muy guay! ¡Ya era hora, eh! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mucho discursito, mucho discursito, pero aquí rescatar poquito, ¿eh?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llevo siglos aquí, rodeado de malolientes goblins. </t>
+  </si>
+  <si>
+    <t>En cuanto salga voy a poner una queja en el Departamento de Asuntos Heroicos…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRISONER: Ay, ay, we know, ye are a cool knicht! it wis aboot time, huh! </t>
+  </si>
+  <si>
+    <t>aw talk an na action, huh?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A'v been here for ages, surroundit bi pongy goblins. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRISIONERO: Anda, vaya, meenos mal, el señorito ha venido a rescatarme, qué bien. </t>
+  </si>
+  <si>
+    <t>Solo han tardado CINCUENTA AÑOS en enviarme a alguien, ¿en esto se van mis impuestos? Esto es indignante…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRISONER: Oh, wow, lucky me this knicht i shiny armour has decidit tae rescue me. </t>
+  </si>
+  <si>
+    <t>HÉROE: Sí, el cetro del Rey Ca…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRISIONERO: ¡CABRÓN! ¿Quién lo ha votado? </t>
+  </si>
+  <si>
+    <t>¡Yo desde luego no, que estaba aquí!</t>
+  </si>
+  <si>
+    <t>Wha votit for him? A surely didn't, A wis trappit here!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRUBLIN: Oh, Mr. Auditor only likes heros’ feet. </t>
+  </si>
+  <si>
+    <t>AUDITOR: ¿Ha venido alguien a por usted?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUDITOR: ¿Y qué pasó? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The moment A put a foot ootside this dungeon, A am gaun'ae complaint tae </t>
+  </si>
+  <si>
+    <t>the department o heroic affairs…</t>
+  </si>
+  <si>
+    <t>It  only took fifty years tae send someone. Is here where aw ma taxes are gang? Outrageous!</t>
+  </si>
+  <si>
+    <t>PRISIONERO: ¡Pues que tal como vino se fue! ¡Mucha palabrería, pero rescatar poquito!</t>
+  </si>
+  <si>
+    <t>En cuanto salga voy a poner una queja en su departamento que se va a cagar la perra.</t>
+  </si>
+  <si>
+    <t>AUDITOR: Disculpe, el Departamento de Asuntos Heroicos trabaja todo lo rápido que puede…</t>
+  </si>
+  <si>
+    <t>AUDITOR: Señor, entiendo su enfado, pero el sistema está saturado.</t>
+  </si>
+  <si>
+    <t>PRISIONERO: Si, si, muy saturado PERO BIEN QUE VIENEN A BUSCAR EL CETRITO.</t>
+  </si>
+  <si>
+    <t>AUDITOR: ¿Se refiere al tesoro de la mazmorra, el cetro del Rey Ca…?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRISIONERO: ¡Más le vale! ¡Aquí le espero! </t>
+  </si>
+  <si>
+    <t>AUDITOR: Has someone come to rescue you?</t>
+  </si>
+  <si>
+    <t>AUDITOR: And what happened?</t>
+  </si>
+  <si>
+    <t>The moment A put a foot ootside this dungeon, A am gaun'ae complaint tae the department.</t>
+  </si>
+  <si>
+    <t>AUDITOR: I am sorry, the Department of Heroic Affairs works as fast as it can…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUDITOR: Sir, I understand your anger, but the system is collapsed. </t>
+  </si>
+  <si>
+    <t>PRISONER: Yes, collapsed, but still here you are LOOKING FOR A BLOODY SCEPTER, RIGHT?</t>
+  </si>
+  <si>
+    <t>AUDITOR: Do you mean the treasure of this dungeon? The scepter of the F…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRISIONERO: </t>
+  </si>
+  <si>
+    <t>PRISONER: FUCKIN KING, AYE!</t>
+  </si>
+  <si>
+    <t>AUDITOR: Sir, your spare hero will arrive within one or two business moons.</t>
+  </si>
+  <si>
+    <t>PRISONER: He better do! I wait here!</t>
+  </si>
+  <si>
+    <t>PRISONER: He went back the way he came! much talk an little action!</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>F1_HIntro_01</t>
+  </si>
+  <si>
+    <t>F1_HIntro_02</t>
+  </si>
+  <si>
+    <t>F1_HIntro_03</t>
+  </si>
+  <si>
+    <t>F1_Hspike_S01</t>
+  </si>
+  <si>
+    <t>F1_Hspike_S02</t>
+  </si>
+  <si>
+    <t>F1_Hspike_S03_01</t>
+  </si>
+  <si>
+    <t>F1_Hspike_S03_02</t>
+  </si>
+  <si>
+    <t>F1_Hspike_F01</t>
+  </si>
+  <si>
+    <t>F1_Hspike_F02</t>
+  </si>
+  <si>
+    <t>F1_Hspike_F03</t>
+  </si>
+  <si>
+    <t>F1_Hpen_S01_01</t>
+  </si>
+  <si>
+    <t>F1_Hpen_S01_02</t>
+  </si>
+  <si>
+    <t>F1_Hpen_S02_01</t>
+  </si>
+  <si>
+    <t>F1_Hpen_S02_02</t>
+  </si>
+  <si>
+    <t>F1_Hpen_S03_01</t>
+  </si>
+  <si>
+    <t>F1_Hpen_S03_02</t>
+  </si>
+  <si>
+    <t>F1_Hpen_F01_01</t>
+  </si>
+  <si>
+    <t>F1_Hpen_F01_02</t>
+  </si>
+  <si>
+    <t>F1_Hpen_F02</t>
+  </si>
+  <si>
+    <t>F1_Hpen_F03</t>
+  </si>
+  <si>
+    <t>F1_Harrow_S01</t>
+  </si>
+  <si>
+    <t>F1_Harrow_S02</t>
+  </si>
+  <si>
+    <t>F1_Harrow_S03</t>
+  </si>
+  <si>
+    <t>F1_Harrow_F01</t>
+  </si>
+  <si>
+    <t>F1_Harrow_F02</t>
+  </si>
+  <si>
+    <t>F1_Harrow_F03</t>
+  </si>
+  <si>
+    <t>F1_Hslime_S01</t>
+  </si>
+  <si>
+    <t>F1_Hslime_S02</t>
+  </si>
+  <si>
+    <t>F1_Hslime_S03</t>
+  </si>
+  <si>
+    <t>F1_Hslime_F01</t>
+  </si>
+  <si>
+    <t>F1_Hslime_F02</t>
+  </si>
+  <si>
+    <t>F1_Hslime_F03</t>
+  </si>
+  <si>
+    <t>F1_HChest_01</t>
+  </si>
+  <si>
+    <t>F1_HChest_02</t>
+  </si>
+  <si>
+    <t>F1_HChest_03</t>
+  </si>
+  <si>
+    <t>F1_Hpic_01</t>
+  </si>
+  <si>
+    <t>F1_Hpic_02</t>
+  </si>
+  <si>
+    <t>F1_Hpic_03</t>
+  </si>
+  <si>
+    <t>F1_Hgob_S01</t>
+  </si>
+  <si>
+    <t>F1_Hgob_S02</t>
+  </si>
+  <si>
+    <t>F1_Hgob_S03</t>
+  </si>
+  <si>
+    <t>F1_Hgob_F01</t>
+  </si>
+  <si>
+    <t>F1_Hgob_F02</t>
+  </si>
+  <si>
+    <t>F1_Hgob_F03</t>
+  </si>
+  <si>
+    <t>F1_Pr_01</t>
+  </si>
+  <si>
+    <t>F1_H_01_01</t>
+  </si>
+  <si>
+    <t>F1_H_01_02</t>
+  </si>
+  <si>
+    <t>F1_H_01_03</t>
+  </si>
+  <si>
+    <t>F1_Pr_02_01</t>
+  </si>
+  <si>
+    <t>F1_Pr_02_02</t>
+  </si>
+  <si>
+    <t>F1_Pr_02_03</t>
+  </si>
+  <si>
+    <t>F1_Pr_02_04</t>
+  </si>
+  <si>
+    <t>F1_Pr_02_05</t>
+  </si>
+  <si>
+    <t>F1_H_02</t>
+  </si>
+  <si>
+    <t>F1_Pr_03_01</t>
+  </si>
+  <si>
+    <t>F1_Pr_03_02</t>
+  </si>
+  <si>
+    <t>F1_H_03</t>
+  </si>
+  <si>
+    <t>F1_Pr_04</t>
+  </si>
+  <si>
+    <t>F1_H_04</t>
+  </si>
+  <si>
+    <t>F1_Pr_05_01</t>
+  </si>
+  <si>
+    <t>F1_Pr_05_02</t>
+  </si>
+  <si>
+    <t>F1_H_05</t>
+  </si>
+  <si>
+    <t>F1_Pr_06</t>
+  </si>
+  <si>
+    <t>F2_H01</t>
+  </si>
+  <si>
+    <t>F2_F01</t>
+  </si>
+  <si>
+    <t>F2_H02</t>
+  </si>
+  <si>
+    <t>F2_F02</t>
+  </si>
+  <si>
+    <t>F2_H03</t>
+  </si>
+  <si>
+    <t>F2_F03</t>
+  </si>
+  <si>
+    <t>F2_H04</t>
+  </si>
+  <si>
+    <t>F2_F04</t>
+  </si>
+  <si>
+    <t>F2_H05</t>
+  </si>
+  <si>
+    <t>F3_AU01_01</t>
+  </si>
+  <si>
+    <t>F3_AU01_02</t>
+  </si>
+  <si>
+    <t>F3_AUPFlag_01</t>
+  </si>
+  <si>
+    <t>F3_AUPFlag_02</t>
+  </si>
+  <si>
+    <t>F3_AUPFlag_03</t>
+  </si>
+  <si>
+    <t>F3_AUPFlag_04</t>
+  </si>
+  <si>
+    <t>F3_AUQFlag_01</t>
+  </si>
+  <si>
+    <t>F3_AUQFlag_02</t>
+  </si>
+  <si>
+    <t>F3_AUQFlag_03</t>
+  </si>
+  <si>
+    <t>F3_AUQFlag_04</t>
+  </si>
+  <si>
+    <t>F3_Auspike_01</t>
+  </si>
+  <si>
+    <t>F3_Aupend_01</t>
+  </si>
+  <si>
+    <t>F3_Auslime_01</t>
+  </si>
+  <si>
+    <t>F3_Auarrow_01</t>
+  </si>
+  <si>
+    <t>F3_Grub01_01</t>
+  </si>
+  <si>
+    <t>F3_Grub01_02</t>
+  </si>
+  <si>
+    <t>F3_Grub01_03</t>
+  </si>
+  <si>
+    <t>F3_Au01</t>
+  </si>
+  <si>
+    <t>F3_Grub02</t>
+  </si>
+  <si>
+    <t>F3_Au02</t>
+  </si>
+  <si>
+    <t>F3_Grub03_01</t>
+  </si>
+  <si>
+    <t>F3_Grub03_02</t>
+  </si>
+  <si>
+    <t>F3_Grub03_03</t>
+  </si>
+  <si>
+    <t>F3_Grub03_04</t>
+  </si>
+  <si>
+    <t>F3_Grub03_05</t>
+  </si>
+  <si>
+    <t>F3_Au03</t>
+  </si>
+  <si>
+    <t>F3_Grub04_01</t>
+  </si>
+  <si>
+    <t>F3_Grub04_02</t>
+  </si>
+  <si>
+    <t>F3_Grub04_03</t>
+  </si>
+  <si>
+    <t>F3_Au04</t>
+  </si>
+  <si>
+    <t>F3_Grub05_01</t>
+  </si>
+  <si>
+    <t>F3_Grub05_02</t>
+  </si>
+  <si>
+    <t>F3_Au05</t>
+  </si>
+  <si>
+    <t>F3_Grub06</t>
+  </si>
+  <si>
+    <t>F3_Au06</t>
+  </si>
+  <si>
+    <t>He venido a auditar una hazaña</t>
+  </si>
+  <si>
+    <t>AUDITOR: Hola, buenas. Soy del Departamento de Asuntos Heroicos.</t>
+  </si>
+  <si>
+    <t>I came to audit a feat.</t>
+  </si>
+  <si>
+    <t>AUDITOR: Hello, I am from the Department of Heroic Affairs.</t>
+  </si>
+  <si>
+    <t>PRISIONERO: CON USTED QUERÍA YO HABLAR.</t>
+  </si>
+  <si>
+    <t>¿Qué es esto de enviar a un héroe al rescate y que ni rescate ni ná?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRISONER: FINALLY, SOMEONE FROM THE BLOODY DEPARTMENT! </t>
+  </si>
+  <si>
+    <t>Why dae ye send an hero wha doesnae rescue??</t>
+  </si>
+  <si>
+    <t>PRISIONERO: Sí, sí, uno muy limpito, con su armadurita bien brillante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Estuvo aquí ayer justo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRISONER:  Ay,yes, a knicht i his shiny little armour an awthing. </t>
+  </si>
+  <si>
+    <t>He wis here juist yesterday!</t>
+  </si>
+  <si>
+    <t>PRISIONERO: Pobrecitos, que trabajan mucho y han tardado CINCUENTA AÑOS en enviarme a alguien.</t>
+  </si>
+  <si>
+    <t>¿En esto se van mis impuestos? Esto es indignante…</t>
+  </si>
+  <si>
+    <t>PRISONER: Oh, poor souls, they work sae hard an thon's why they took fifty years tae send someone for me.</t>
+  </si>
+  <si>
+    <t>Is here where aw ma taxes are gang? outrageous!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRISIONERO: ¡CABRÓN!  ¿Quién lo ha votado? </t>
+  </si>
+  <si>
+    <t>AUDITOR: Señor, su héroe de repuesto llegará entre una y dos lunas hábiles.</t>
+  </si>
+  <si>
+    <t>F3_AU_01_01</t>
+  </si>
+  <si>
+    <t>F3_PR_01_01</t>
+  </si>
+  <si>
+    <t>F3_AU_01_02</t>
+  </si>
+  <si>
+    <t>F3_PR_01_02</t>
+  </si>
+  <si>
+    <t>FR_AU_02</t>
+  </si>
+  <si>
+    <t>FR_AU_03</t>
+  </si>
+  <si>
+    <t>FR_PR_02_01</t>
+  </si>
+  <si>
+    <t>FR_PR_02_02</t>
+  </si>
+  <si>
+    <t>FR_PR_03_01</t>
+  </si>
+  <si>
+    <t>FR_PR_03_02</t>
+  </si>
+  <si>
+    <t>FR_PR_03_03</t>
+  </si>
+  <si>
+    <t>FR_AU_04</t>
+  </si>
+  <si>
+    <t>FR_PR_04_01</t>
+  </si>
+  <si>
+    <t>FR_PR_04_02</t>
+  </si>
+  <si>
+    <t>FR_AU_05</t>
+  </si>
+  <si>
+    <t>FR_PR_05</t>
+  </si>
+  <si>
+    <t>FR_AU_06</t>
+  </si>
+  <si>
+    <t>FR_PR_06_01</t>
+  </si>
+  <si>
+    <t>FR_PR_06_02</t>
+  </si>
+  <si>
+    <t>FR_AU_07</t>
+  </si>
+  <si>
+    <t>FR_PR_07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -1083,7 +1292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1094,22 +1303,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="27">
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1130,19 +1373,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1168,6 +1402,21 @@
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1182,58 +1431,82 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{430F41CE-8D11-4588-AB14-FAD1300FB781}" name="Tabla2" displayName="Tabla2" ref="A1:C4" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{430F41CE-8D11-4588-AB14-FAD1300FB781}" name="Tabla2" displayName="Tabla2" ref="A1:C4" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:C4" xr:uid="{430F41CE-8D11-4588-AB14-FAD1300FB781}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7F563443-CF3D-441F-B3FC-DDC2989B6985}" name="ID" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{78865998-EC52-4C56-9A04-6622A9AF6FB5}" name="ESP2" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{F2130385-BCAE-4446-BE2E-F14BAA17B9DD}" name="ENG" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{7F563443-CF3D-441F-B3FC-DDC2989B6985}" name="ID" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{78865998-EC52-4C56-9A04-6622A9AF6FB5}" name="ESP2" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{F2130385-BCAE-4446-BE2E-F14BAA17B9DD}" name="ENG" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF4A900D-949A-4776-9EEB-08D3097024FF}" name="Tabla1" displayName="Tabla1" ref="A1:C50" totalsRowShown="0">
-  <autoFilter ref="A1:C50" xr:uid="{FF4A900D-949A-4776-9EEB-08D3097024FF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF4A900D-949A-4776-9EEB-08D3097024FF}" name="Tabla1" displayName="Tabla1" ref="A1:C43" totalsRowShown="0">
+  <autoFilter ref="A1:C43" xr:uid="{FF4A900D-949A-4776-9EEB-08D3097024FF}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6967BB4A-30C2-43B6-9CB2-28E7189BA6E3}" name="ESP" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{7E2A380B-189B-40FA-A9F1-7C8D445FF207}" name="ESP2" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{43E3BF63-9BF4-4AC8-B8F8-674E6D06910D}" name="ENG" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{6967BB4A-30C2-43B6-9CB2-28E7189BA6E3}" name="ESP" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{7E2A380B-189B-40FA-A9F1-7C8D445FF207}" name="ESP2" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{43E3BF63-9BF4-4AC8-B8F8-674E6D06910D}" name="ENG" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{286C4389-7C8C-4B9E-B4B9-9F82B2FD62A6}" name="Tabla3" displayName="Tabla3" ref="A1:C10" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9B45A656-F700-46E1-8873-F55BB2B814F7}" name="Tabla6" displayName="Tabla6" ref="A1:C20" totalsRowShown="0">
+  <autoFilter ref="A1:C20" xr:uid="{9B45A656-F700-46E1-8873-F55BB2B814F7}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{DC263509-58B2-4E96-97BC-5141AE9E20C1}" name="ID" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{B9748C0B-2805-4DD4-96BD-21DC38535CF9}" name="ESP" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{D68444E6-D518-4BD7-8612-43C23488AE7F}" name="ENG" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{286C4389-7C8C-4B9E-B4B9-9F82B2FD62A6}" name="Tabla3" displayName="Tabla3" ref="A1:C10" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:C10" xr:uid="{286C4389-7C8C-4B9E-B4B9-9F82B2FD62A6}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{15CB8B6B-B6FB-4304-ABDA-AE8254F6C792}" name="ID" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{AE1AA87D-06B0-4D7D-A3FE-230B3D442450}" name="ESP" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{ECA1BE4B-B0B2-494D-999B-67074995A330}" name="ENG" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{15CB8B6B-B6FB-4304-ABDA-AE8254F6C792}" name="ID" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{AE1AA87D-06B0-4D7D-A3FE-230B3D442450}" name="ESP" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{ECA1BE4B-B0B2-494D-999B-67074995A330}" name="ENG" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6BEF665A-6D46-419E-8D30-7941B6E47772}" name="Tabla4" displayName="Tabla4" ref="A1:C23" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:C23" xr:uid="{6BEF665A-6D46-419E-8D30-7941B6E47772}"/>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6BEF665A-6D46-419E-8D30-7941B6E47772}" name="Tabla4" displayName="Tabla4" ref="A1:C15" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:C15" xr:uid="{6BEF665A-6D46-419E-8D30-7941B6E47772}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4548EBBF-AD72-47DF-A0E1-F13E9938E4BE}" name="ID" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{BC762B95-9229-4621-B9AA-CEA800FFED28}" name="ESP" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{5B2FECB2-5AE3-4BD9-B4C1-6DF533A65A1C}" name="ENG" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{4548EBBF-AD72-47DF-A0E1-F13E9938E4BE}" name="ID" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{BC762B95-9229-4621-B9AA-CEA800FFED28}" name="ESP" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{5B2FECB2-5AE3-4BD9-B4C1-6DF533A65A1C}" name="ENG" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FB449534-BC40-434A-ADF4-6DC749DE82A8}" name="Tabla5" displayName="Tabla5" ref="A1:C23" totalsRowShown="0">
-  <autoFilter ref="A1:C23" xr:uid="{FB449534-BC40-434A-ADF4-6DC749DE82A8}"/>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7FFFA032-E4FC-4116-A851-7E1923A6BFA8}" name="Tabla7" displayName="Tabla7" ref="A1:C22" totalsRowShown="0">
+  <autoFilter ref="A1:C22" xr:uid="{7FFFA032-E4FC-4116-A851-7E1923A6BFA8}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{18C7102A-848D-4628-9A69-1C4A1C625D46}" name="ID"/>
+    <tableColumn id="1" xr3:uid="{AC92302A-5C68-4254-819B-35617C8DCA81}" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{DB64FBCE-1660-412A-A532-60D5A69CB864}" name="ESP" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{568AD37E-6CD6-4395-A3D0-CF48D6A83821}" name="ENG" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FB449534-BC40-434A-ADF4-6DC749DE82A8}" name="Tabla5" displayName="Tabla5" ref="A1:C22" totalsRowShown="0">
+  <autoFilter ref="A1:C22" xr:uid="{FB449534-BC40-434A-ADF4-6DC749DE82A8}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{18C7102A-848D-4628-9A69-1C4A1C625D46}" name="ID" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{5C472F6A-4C8C-4564-9522-87D0FAD45731}" name="ESP" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{4D2792A8-85EA-4DDA-825C-3D661B9BBAFC}" name="ENG" dataDxfId="0"/>
   </tableColumns>
@@ -1572,10 +1845,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1583,39 +1856,39 @@
     </row>
     <row r="2" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>246</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>247</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>245</v>
+        <v>146</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>248</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1625,10 +1898,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFE032D-95F9-43DF-A48A-41082064777A}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1643,517 +1916,467 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>119</v>
+        <v>243</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>120</v>
+        <v>244</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>254</v>
+        <v>151</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>256</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>255</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>121</v>
+        <v>247</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>122</v>
+        <v>248</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>123</v>
+        <v>249</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>204</v>
+        <v>251</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>203</v>
+        <v>252</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>207</v>
+        <v>253</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>211</v>
+        <v>132</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>212</v>
+        <v>133</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>215</v>
+        <v>136</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>218</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>221</v>
+        <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>222</v>
+        <v>9</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>124</v>
+        <v>259</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>125</v>
+        <v>260</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>261</v>
+      </c>
       <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>126</v>
+        <v>262</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>127</v>
+        <v>263</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>128</v>
+        <v>264</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>129</v>
+        <v>265</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>130</v>
+        <v>266</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>131</v>
+        <v>267</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>268</v>
+      </c>
       <c r="B28" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>132</v>
+        <v>269</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>133</v>
+        <v>270</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>134</v>
+        <v>271</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>135</v>
+        <v>272</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>136</v>
+        <v>273</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="B35" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>138</v>
+        <v>275</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>139</v>
+        <v>276</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>140</v>
+        <v>277</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>69</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>278</v>
+      </c>
       <c r="B39" s="2" t="s">
-        <v>30</v>
+        <v>179</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>70</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>141</v>
+        <v>279</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>31</v>
+        <v>184</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>72</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>143</v>
+        <v>281</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>73</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>312</v>
+      <c r="A43" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -2163,22 +2386,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D51C646-84B6-4AFD-9113-8CA397437E41}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="53.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="56.109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="41.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>117</v>
+      <c r="A1" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2188,95 +2411,218 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
-        <v>271</v>
+      <c r="A2" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
-        <v>272</v>
+      <c r="B3" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B6" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B7" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B8" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B9" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
-        <v>279</v>
-      </c>
+      <c r="B10" s="4"/>
       <c r="C10" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>280</v>
+      <c r="B11" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>283</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>282</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2297,7 +2643,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2308,101 +2654,101 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>144</v>
+        <v>302</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>145</v>
+        <v>303</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>146</v>
+        <v>304</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>150</v>
+        <v>305</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>147</v>
+        <v>306</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>151</v>
+        <v>307</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>223</v>
+        <v>138</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>224</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>148</v>
+        <v>308</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>152</v>
+        <v>309</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>149</v>
+        <v>310</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2415,10 +2761,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77339C06-87E8-4D06-B84C-E9B7B6EB6D0C}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2430,7 +2776,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2439,156 +2785,164 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>229</v>
+        <v>312</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>225</v>
+        <v>141</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>230</v>
+        <v>313</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>226</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>233</v>
+        <v>317</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>234</v>
+        <v>318</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>261</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>235</v>
+        <v>320</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>262</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>236</v>
+        <v>321</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>263</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>237</v>
+        <v>322</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>264</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>238</v>
+        <v>323</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>265</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>266</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
@@ -2596,60 +2950,34 @@
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
-        <v>111</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>267</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4" t="s">
-        <v>113</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>268</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
@@ -2731,48 +3059,8 @@
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -2781,23 +3069,326 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F5AF14-B854-48BD-B5F0-E1DDD1E9BCDA}">
-  <dimension ref="A1:C23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0343B4AB-EEE2-4D40-9E2F-E8AADFEF4B23}">
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="3"/>
+    <col min="2" max="2" width="53.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="4"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F5AF14-B854-48BD-B5F0-E1DDD1E9BCDA}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="48.21875" style="2" customWidth="1"/>
     <col min="3" max="3" width="49.88671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>117</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2806,250 +3397,242 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>181</v>
+    <row r="2" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>325</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>182</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>183</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>184</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>185</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>329</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>189</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>190</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>191</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>192</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>193</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>195</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>196</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>197</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>198</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>199</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>200</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>201</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>202</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Assets/Texts/Texts.xlsx
+++ b/Assets/Texts/Texts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marro\Documents\GitHub\HeroAuditing\Assets\Texts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BE7DD7-A3EC-424F-ADE1-2D05EF7EA9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECF7271-1FA6-4B08-B7FB-7D35D421CFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="5" xr2:uid="{A92B82CA-84D7-4871-BE57-FF21B6B2E3C0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{A92B82CA-84D7-4871-BE57-FF21B6B2E3C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="381">
   <si>
     <t>ESP</t>
   </si>
@@ -50,87 +50,6 @@
     <t>ENG</t>
   </si>
   <si>
-    <t>«Salté por encima del foso de pinchos sin recibir un solo rasguño».</t>
-  </si>
-  <si>
-    <t>«¡Casi me caigo, pero por suerte reaccioné a tiempo!»</t>
-  </si>
-  <si>
-    <t>«¡Cuál fue mi sorpresa cuando caí en ese maldito foso!»</t>
-  </si>
-  <si>
-    <t>«He de admitirlo, esos pinchazos no fueron precisamente agradables».</t>
-  </si>
-  <si>
-    <t>«¡Aún tengo las marcas en la armadura!»</t>
-  </si>
-  <si>
-    <t>«Pasé raudo y veloz por las cuchillas, sin que me rozasen».</t>
-  </si>
-  <si>
-    <t>«Cuando decía que necesitaba un corte no me refería a esto».</t>
-  </si>
-  <si>
-    <t>«Fue una caricia, una caricia dolorosa».</t>
-  </si>
-  <si>
-    <t>«Ni las flechas más certeras pudieron pararme»</t>
-  </si>
-  <si>
-    <t>«Atravesé la trampa sin recibir daño»</t>
-  </si>
-  <si>
-    <t>«Las únicas flechas que no soy capaz de esquivar son las de Cupido»</t>
-  </si>
-  <si>
-    <t>«Vale, alguna que otra me pinchó»</t>
-  </si>
-  <si>
-    <t>«¡Las muescas de mi armadura hablan por mí!»</t>
-  </si>
-  <si>
-    <t>«La humillación es la más venenosa de las flechas»</t>
-  </si>
-  <si>
-    <t>«Prefiero que me lluevan los elogios, gracias».</t>
-  </si>
-  <si>
-    <t>«Ni siquiera me rozó».</t>
-  </si>
-  <si>
-    <t>«Un héroe nunca tiene miedo a mancharse un poco».</t>
-  </si>
-  <si>
-    <t>«¡Estas manchas de slime no salen con nada!».</t>
-  </si>
-  <si>
-    <t>«Decir que sentí asco se quedaría corto».</t>
-  </si>
-  <si>
-    <t>«Aún me estoy sacando slime de la ropa interior».</t>
-  </si>
-  <si>
-    <t>«La curiosidad de saber qué albergaba en su interior me pudo».</t>
-  </si>
-  <si>
-    <t>«¿Lo que encontremos en un cofre nos lo podemos quedar o tenemos que declararlo?».</t>
-  </si>
-  <si>
-    <t>«Dejar este tesoro en esta mazmorra infecta hubiese sido un sacrilegio»</t>
-  </si>
-  <si>
-    <t>CUADROS ANTIGUOS DE REYES</t>
-  </si>
-  <si>
-    <t>«Las viejas glorias del pasado tienen sus ojos puestos en mí»</t>
-  </si>
-  <si>
-    <t>«Después de esta hazaña, quizá yo sea el próximo protagonista de un cuadro»</t>
-  </si>
-  <si>
-    <t>«Me sentía observado por sus vetustas miradas»</t>
-  </si>
-  <si>
     <t>HÉROE: … Y así fue como pasó.</t>
   </si>
   <si>
@@ -155,87 +74,6 @@
     <t>HÉROE: ¿Cómo?</t>
   </si>
   <si>
-    <t>"I jumped over the spike trap without getting no harm!"</t>
-  </si>
-  <si>
-    <t>"I almost fell, but luckily my catlike reflexes saved me just in time!"</t>
-  </si>
-  <si>
-    <t>"What was my surprise when I fell into that dreadful trap!"</t>
-  </si>
-  <si>
-    <t>"I must admit, those pricks were not nice at all"</t>
-  </si>
-  <si>
-    <t>"I still have marks on my armour!"</t>
-  </si>
-  <si>
-    <t>"I thought I was fast, but knives were faster"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"When I'd said I wanted a cut, I didn't mean  this one" </t>
-  </si>
-  <si>
-    <t>"I felt it like a caress on my skin… Well, a painful one"</t>
-  </si>
-  <si>
-    <t>"Not even the best-aimed arrows could stop me"</t>
-  </si>
-  <si>
-    <t>"I went through the trap without getting any harm"</t>
-  </si>
-  <si>
-    <t>"They only arrows I am not able to avoid are Cupid's ones"</t>
-  </si>
-  <si>
-    <t>"Okay, maybe one or two hit me"</t>
-  </si>
-  <si>
-    <t>"Slots on my armour speak for me!"</t>
-  </si>
-  <si>
-    <t>"Humilliation is the most poisonous of arrows"</t>
-  </si>
-  <si>
-    <t>"I prefer to be showered with praise, thank you".</t>
-  </si>
-  <si>
-    <t>"That does not even touched me".</t>
-  </si>
-  <si>
-    <t>"A hero is never afraid to get a little dirty"</t>
-  </si>
-  <si>
-    <t>"Those damn slime stains won't come out, I know"</t>
-  </si>
-  <si>
-    <t>"To say I felt nauseous would fall short"</t>
-  </si>
-  <si>
-    <t>"I am still removing slime from my underwear"</t>
-  </si>
-  <si>
-    <t>"The curiosity of knowing what was inside was stronger than myself".</t>
-  </si>
-  <si>
-    <t>"Do we have to declare what we find inside a chest or do we get to keep it?"</t>
-  </si>
-  <si>
-    <t>"Leave that treasure inside that foul dungeon would have been a sacrilege"</t>
-  </si>
-  <si>
-    <t>PICTURES OF OLD KINGS</t>
-  </si>
-  <si>
-    <t>"Old glories from the past have their eyes on me"</t>
-  </si>
-  <si>
-    <t>"After this great feat, perhaps I'll be the next to be painted"</t>
-  </si>
-  <si>
-    <t>"I felt observed by their ancient eyes"</t>
-  </si>
-  <si>
     <t>HERO: … and that's what it happened</t>
   </si>
   <si>
@@ -300,39 +138,6 @@
   </si>
   <si>
     <t>AUDITOR: Mmm… ¿solo a un amigo?</t>
-  </si>
-  <si>
-    <t>“Esto me resulta extraño…”</t>
-  </si>
-  <si>
-    <t>“Creo que te he pillado”</t>
-  </si>
-  <si>
-    <t>“Mucho lirili y poco lerele, señor héroe…”</t>
-  </si>
-  <si>
-    <t>“Aquí hay gato encerrado…”</t>
-  </si>
-  <si>
-    <t>“Mmm me lo tengo que pensar mejor”</t>
-  </si>
-  <si>
-    <t>“Vamos a darle un par de vueltas”</t>
-  </si>
-  <si>
-    <t>“No, no hay nada que ver aquí”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Mejor dejarlo como estaba…” </t>
-  </si>
-  <si>
-    <t>"Prefiero los pinchos de pollo, gracias"</t>
-  </si>
-  <si>
-    <t>"Sí que maneja presupuesto esta gente"</t>
-  </si>
-  <si>
-    <t>"I bet he took a bow after his perfomance…"</t>
   </si>
   <si>
     <t>ID</t>
@@ -468,42 +273,6 @@
     <t xml:space="preserve">He owed Grublin five shiny rockies, that bastard… </t>
   </si>
   <si>
-    <t xml:space="preserve">"I run through the knives as swiftly </t>
-  </si>
-  <si>
-    <t>as the wind without they even got to touch me!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Knives danced right in front of my eyes… </t>
-  </si>
-  <si>
-    <t xml:space="preserve">But there's no better dancer than me". </t>
-  </si>
-  <si>
-    <t xml:space="preserve">«Ese baile de cuchillas era letal, </t>
-  </si>
-  <si>
-    <t>pero no hay mejor bailarín que yo».</t>
-  </si>
-  <si>
-    <t xml:space="preserve">«No mentiré, sentí miedo… </t>
-  </si>
-  <si>
-    <t>miedo de aburrirme con estas trampas tan pueriles».</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"I will not lie, I was afraid… </t>
-  </si>
-  <si>
-    <t>Afraid of getting bored with such a childlish trap"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">«Pensé que era rápido, </t>
-  </si>
-  <si>
-    <t>pero las cuchillas lo fueron más».</t>
-  </si>
-  <si>
     <t>FUNCIONARIO:  Recibirá su licencia en un periodo de 2 a 3 lunas hábiles…</t>
   </si>
   <si>
@@ -513,18 +282,9 @@
     <t xml:space="preserve">AUDITOR: (Suspira) (Mira el informe) Menos mal que he desayunado antes de venir… </t>
   </si>
   <si>
-    <t xml:space="preserve">Esta mazmorra es larga de narices. Veamos qué ha hecho nuestro supuesto “héroe”. </t>
-  </si>
-  <si>
     <t>AUDITOR: (sighs) (looks at the letter) Well, thank goodness I have already took my breakfast…</t>
   </si>
   <si>
-    <t xml:space="preserve"> This dungeon is long as damn big. Let's see what our "hero" has done. </t>
-  </si>
-  <si>
-    <t>HERO: Por fin llegué al Cript of the Cursed Goblin.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sus puertas me recibieron como fauces abiertas </t>
   </si>
   <si>
@@ -540,57 +300,6 @@
     <t xml:space="preserve"> and I was gobbled by its wicked darkness</t>
   </si>
   <si>
-    <t xml:space="preserve">«En el foso me aguardaba la muerte, </t>
-  </si>
-  <si>
-    <t>pero me asomé al abismo y le dije: “hoy no”».</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Death awaited me at the bottom of the ditch, </t>
-  </si>
-  <si>
-    <t>but I look at the abism and said: 'not today'"</t>
-  </si>
-  <si>
-    <t>"This is strange…"</t>
-  </si>
-  <si>
-    <t>"I think I got you"</t>
-  </si>
-  <si>
-    <t>"Much ado about nothing, mister Hero…"</t>
-  </si>
-  <si>
-    <t>"There's something fishy going on…"</t>
-  </si>
-  <si>
-    <t>"I have to think again…"</t>
-  </si>
-  <si>
-    <t>"Let's chew the cud"</t>
-  </si>
-  <si>
-    <t>"Nah, nothing to see here"</t>
-  </si>
-  <si>
-    <t>"Better let it be…"</t>
-  </si>
-  <si>
-    <t>"I prefer a shish kebab, please"</t>
-  </si>
-  <si>
-    <t>"They sure are floaded, man"</t>
-  </si>
-  <si>
-    <t>"I feel so sorry for the cleaning service…"</t>
-  </si>
-  <si>
-    <t>"Lo siento por el servicio de limpieza…"</t>
-  </si>
-  <si>
-    <t>"Seguro que salió de aquí 'enflechao'"</t>
-  </si>
-  <si>
     <t xml:space="preserve">PRISIONERO: ¡Eh! ¿Qué pasa aquí? ¿Tú quién eres?  </t>
   </si>
   <si>
@@ -627,42 +336,6 @@
     <t>PRISONER: A know exactly why ye came. Ye are here for thon wee scepter, am A richt?</t>
   </si>
   <si>
-    <t>«¡No sois rival para mi bravura!»</t>
-  </si>
-  <si>
-    <t>«No debí subestimarlos».</t>
-  </si>
-  <si>
-    <t>«A veces se me olvida lo escurridizos que son».</t>
-  </si>
-  <si>
-    <t>«Eso dolió».</t>
-  </si>
-  <si>
-    <t>«Morid, malditos»</t>
-  </si>
-  <si>
-    <t>«¡Volved al infierno del que salisteis!»</t>
-  </si>
-  <si>
-    <t>"Die, you cowards!"</t>
-  </si>
-  <si>
-    <t>"You are no rival to my bravery!"</t>
-  </si>
-  <si>
-    <t>"Come back to hell you came from!"</t>
-  </si>
-  <si>
-    <t>"I shouldn't have underestimated them."</t>
-  </si>
-  <si>
-    <t>"Sometimes I forget how slippery they are."</t>
-  </si>
-  <si>
-    <t>"Ouch, that hurt"</t>
-  </si>
-  <si>
     <t>PRISIONER: Pretty please. Thank ye.</t>
   </si>
   <si>
@@ -837,12 +510,6 @@
     <t>F1_Hspike_F03</t>
   </si>
   <si>
-    <t>F1_Hpen_S01_01</t>
-  </si>
-  <si>
-    <t>F1_Hpen_S01_02</t>
-  </si>
-  <si>
     <t>F1_Hpen_S02_01</t>
   </si>
   <si>
@@ -1194,55 +861,376 @@
     <t>F3_PR_01_02</t>
   </si>
   <si>
-    <t>FR_AU_02</t>
-  </si>
-  <si>
-    <t>FR_AU_03</t>
-  </si>
-  <si>
-    <t>FR_PR_02_01</t>
-  </si>
-  <si>
-    <t>FR_PR_02_02</t>
-  </si>
-  <si>
-    <t>FR_PR_03_01</t>
-  </si>
-  <si>
-    <t>FR_PR_03_02</t>
-  </si>
-  <si>
-    <t>FR_PR_03_03</t>
-  </si>
-  <si>
-    <t>FR_AU_04</t>
-  </si>
-  <si>
-    <t>FR_PR_04_01</t>
-  </si>
-  <si>
-    <t>FR_PR_04_02</t>
-  </si>
-  <si>
-    <t>FR_AU_05</t>
-  </si>
-  <si>
-    <t>FR_PR_05</t>
-  </si>
-  <si>
-    <t>FR_AU_06</t>
-  </si>
-  <si>
-    <t>FR_PR_06_01</t>
-  </si>
-  <si>
-    <t>FR_PR_06_02</t>
-  </si>
-  <si>
-    <t>FR_AU_07</t>
-  </si>
-  <si>
-    <t>FR_PR_07</t>
+    <t>F3_AU_02</t>
+  </si>
+  <si>
+    <t>F3_PR_02_01</t>
+  </si>
+  <si>
+    <t>F3_PR_02_02</t>
+  </si>
+  <si>
+    <t>F3_AU_03</t>
+  </si>
+  <si>
+    <t>F3_PR_03_01</t>
+  </si>
+  <si>
+    <t>F3_PR_03_02</t>
+  </si>
+  <si>
+    <t>F3_PR_03_03</t>
+  </si>
+  <si>
+    <t>F3_AU_04</t>
+  </si>
+  <si>
+    <t>F3_PR_04_01</t>
+  </si>
+  <si>
+    <t>F3_PR_04_02</t>
+  </si>
+  <si>
+    <t>F3_AU_05</t>
+  </si>
+  <si>
+    <t>F3_PR_05</t>
+  </si>
+  <si>
+    <t>F3_AU_06</t>
+  </si>
+  <si>
+    <t>F3_PR_06_01</t>
+  </si>
+  <si>
+    <t>F3_PR_06_02</t>
+  </si>
+  <si>
+    <t>F3_AU_07</t>
+  </si>
+  <si>
+    <t>F3_PR_07</t>
+  </si>
+  <si>
+    <t>F1_Hpen_S01</t>
+  </si>
+  <si>
+    <t>I jumped over the spike trap without getting no harm!</t>
+  </si>
+  <si>
+    <t>I almost fell, but luckily my catlike reflexes saved me just in time!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Death awaited me at the bottom of the ditch, </t>
+  </si>
+  <si>
+    <t>What was my surprise when I fell into that dreadful trap!</t>
+  </si>
+  <si>
+    <t>I must admit, those pricks were not nice at all</t>
+  </si>
+  <si>
+    <t>I still have marks on my armour!</t>
+  </si>
+  <si>
+    <t>I run through the knives as swiftly as the wind without they even got to touch me!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knives danced right in front of my eyes… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">But there's no better dancer than me. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I will not lie, I was afraid… </t>
+  </si>
+  <si>
+    <t>Afraid of getting bored with such a childlish trap</t>
+  </si>
+  <si>
+    <t>I thought I was fast, but knives were faster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When I'd said I wanted a cut, I didn't mean  this one </t>
+  </si>
+  <si>
+    <t>I felt it like a caress on my skin… Well, a painful one</t>
+  </si>
+  <si>
+    <t>Not even the best-aimed arrows could stop me</t>
+  </si>
+  <si>
+    <t>I went through the trap without getting any harm</t>
+  </si>
+  <si>
+    <t>They only arrows I am not able to avoid are Cupid's ones</t>
+  </si>
+  <si>
+    <t>Okay, maybe one or two hit me</t>
+  </si>
+  <si>
+    <t>Slots on my armour speak for me!</t>
+  </si>
+  <si>
+    <t>Humilliation is the most poisonous of arrows</t>
+  </si>
+  <si>
+    <t>I prefer to be showered with praise, thank you.</t>
+  </si>
+  <si>
+    <t>That does not even touched me.</t>
+  </si>
+  <si>
+    <t>A hero is never afraid to get a little dirty</t>
+  </si>
+  <si>
+    <t>Those damn slime stains won't come out, I know</t>
+  </si>
+  <si>
+    <t>To say I felt nauseous would fall short</t>
+  </si>
+  <si>
+    <t>I am still removing slime from my underwear</t>
+  </si>
+  <si>
+    <t>The curiosity of knowing what was inside was stronger than myself.</t>
+  </si>
+  <si>
+    <t>Do we have to declare what we find inside a chest or do we get to keep it?</t>
+  </si>
+  <si>
+    <t>Leave that treasure inside that foul dungeon would have been a sacrilege</t>
+  </si>
+  <si>
+    <t>Old glories from the past have their eyes on me</t>
+  </si>
+  <si>
+    <t>After this great feat, perhaps I'll be the next to be painted</t>
+  </si>
+  <si>
+    <t>I felt observed by their ancient eyes</t>
+  </si>
+  <si>
+    <t>Die, you cowards!</t>
+  </si>
+  <si>
+    <t>You are no rival to my bravery!</t>
+  </si>
+  <si>
+    <t>Come back to hell you came from!</t>
+  </si>
+  <si>
+    <t>I shouldn't have underestimated them.</t>
+  </si>
+  <si>
+    <t>Sometimes I forget how slippery they are.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This dungeon is long as damn big. Let's see what our hero has done. </t>
+  </si>
+  <si>
+    <t>This is strange…</t>
+  </si>
+  <si>
+    <t>I think I got you</t>
+  </si>
+  <si>
+    <t>Much ado about nothing, mister Hero…</t>
+  </si>
+  <si>
+    <t>There's something fishy going on…</t>
+  </si>
+  <si>
+    <t>I have to think again…</t>
+  </si>
+  <si>
+    <t>Let's chew the cud</t>
+  </si>
+  <si>
+    <t>Nah, nothing to see here</t>
+  </si>
+  <si>
+    <t>Better let it be…</t>
+  </si>
+  <si>
+    <t>Prefiero los pinchos de pollo, gracias</t>
+  </si>
+  <si>
+    <t>I prefer a shish kebab, please</t>
+  </si>
+  <si>
+    <t>Sí que maneja presupuesto esta gente</t>
+  </si>
+  <si>
+    <t>They sure are floaded, man</t>
+  </si>
+  <si>
+    <t>Lo siento por el servicio de limpieza…</t>
+  </si>
+  <si>
+    <t>I feel so sorry for the cleaning service…</t>
+  </si>
+  <si>
+    <t>Seguro que salió de aquí 'enflechao'</t>
+  </si>
+  <si>
+    <t>I bet he took a bow after his perfomance…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el foso me aguardaba la muerte, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ese baile de cuchillas era letal, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No mentiré, sentí miedo… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pensé que era rápido, </t>
+  </si>
+  <si>
+    <t>Salté por encima del foso de pinchos sin recibir un solo rasguño.</t>
+  </si>
+  <si>
+    <t>¡Casi me caigo, pero por suerte reaccioné a tiempo!</t>
+  </si>
+  <si>
+    <t>¡Cuál fue mi sorpresa cuando caí en ese maldito foso!</t>
+  </si>
+  <si>
+    <t>He de admitirlo, esos pinchazos no fueron precisamente agradables.</t>
+  </si>
+  <si>
+    <t>¡Aún tengo las marcas en la armadura!</t>
+  </si>
+  <si>
+    <t>Pasé raudo y veloz por las cuchillas, sin que me rozasen.</t>
+  </si>
+  <si>
+    <t>pero no hay mejor bailarín que yo.</t>
+  </si>
+  <si>
+    <t>miedo de aburrirme con estas trampas tan pueriles.</t>
+  </si>
+  <si>
+    <t>pero las cuchillas lo fueron más.</t>
+  </si>
+  <si>
+    <t>Cuando decía que necesitaba un corte no me refería a esto.</t>
+  </si>
+  <si>
+    <t>Fue una caricia, una caricia dolorosa.</t>
+  </si>
+  <si>
+    <t>Ni las flechas más certeras pudieron pararme</t>
+  </si>
+  <si>
+    <t>Atravesé la trampa sin recibir daño</t>
+  </si>
+  <si>
+    <t>Las únicas flechas que no soy capaz de esquivar son las de Cupido</t>
+  </si>
+  <si>
+    <t>Vale, alguna que otra me pinchó</t>
+  </si>
+  <si>
+    <t>¡Las muescas de mi armadura hablan por mí!</t>
+  </si>
+  <si>
+    <t>La humillación es la más venenosa de las flechas</t>
+  </si>
+  <si>
+    <t>Prefiero que me lluevan los elogios, gracias.</t>
+  </si>
+  <si>
+    <t>Ni siquiera me rozó.</t>
+  </si>
+  <si>
+    <t>Un héroe nunca tiene miedo a mancharse un poco.</t>
+  </si>
+  <si>
+    <t>¡Estas manchas de slime no salen con nada!.</t>
+  </si>
+  <si>
+    <t>Decir que sentí asco se quedaría corto.</t>
+  </si>
+  <si>
+    <t>Aún me estoy sacando slime de la ropa interior.</t>
+  </si>
+  <si>
+    <t>La curiosidad de saber qué albergaba en su interior me pudo.</t>
+  </si>
+  <si>
+    <t>¿Lo que encontremos en un cofre nos lo podemos quedar o tenemos que declararlo?.</t>
+  </si>
+  <si>
+    <t>Dejar este tesoro en esta mazmorra infecta hubiese sido un sacrilegio</t>
+  </si>
+  <si>
+    <t>Las viejas glorias del pasado tienen sus ojos puestos en mí</t>
+  </si>
+  <si>
+    <t>Después de esta hazaña, quizá yo sea el próximo protagonista de un cuadro</t>
+  </si>
+  <si>
+    <t>Me sentía observado por sus vetustas miradas</t>
+  </si>
+  <si>
+    <t>Morid, malditos</t>
+  </si>
+  <si>
+    <t>¡No sois rival para mi bravura!</t>
+  </si>
+  <si>
+    <t>¡Volved al infierno del que salisteis!</t>
+  </si>
+  <si>
+    <t>No debí subestimarlos.</t>
+  </si>
+  <si>
+    <t>A veces se me olvida lo escurridizos que son.</t>
+  </si>
+  <si>
+    <t>Eso dolió.</t>
+  </si>
+  <si>
+    <t>pero me asomé al abismo y le dije: hoy no.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta mazmorra es larga de narices. Veamos qué ha hecho nuestro supuesto héroe. </t>
+  </si>
+  <si>
+    <t>Esto me resulta extraño…</t>
+  </si>
+  <si>
+    <t>Creo que te he pillado</t>
+  </si>
+  <si>
+    <t>Mucho lirili y poco lerele, señor héroe…</t>
+  </si>
+  <si>
+    <t>Aquí hay gato encerrado…</t>
+  </si>
+  <si>
+    <t>Mmm me lo tengo que pensar mejor</t>
+  </si>
+  <si>
+    <t>Vamos a darle un par de vueltas</t>
+  </si>
+  <si>
+    <t>No, no hay nada que ver aquí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mejor dejarlo como estaba… </t>
+  </si>
+  <si>
+    <t>but I look at the abism and said: not today</t>
+  </si>
+  <si>
+    <t>HEROE: Por fin llegué a la Cripta del Goblin Maldito.</t>
+  </si>
+  <si>
+    <t>Ouch, that hurt.</t>
   </si>
 </sst>
 </file>
@@ -1443,8 +1431,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF4A900D-949A-4776-9EEB-08D3097024FF}" name="Tabla1" displayName="Tabla1" ref="A1:C43" totalsRowShown="0">
-  <autoFilter ref="A1:C43" xr:uid="{FF4A900D-949A-4776-9EEB-08D3097024FF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF4A900D-949A-4776-9EEB-08D3097024FF}" name="Tabla1" displayName="Tabla1" ref="A1:C41" totalsRowShown="0">
+  <autoFilter ref="A1:C41" xr:uid="{FF4A900D-949A-4776-9EEB-08D3097024FF}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{6967BB4A-30C2-43B6-9CB2-28E7189BA6E3}" name="ESP" dataDxfId="16"/>
     <tableColumn id="3" xr3:uid="{7E2A380B-189B-40FA-A9F1-7C8D445FF207}" name="ESP2" dataDxfId="15"/>
@@ -1834,7 +1822,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1845,10 +1833,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1856,35 +1844,35 @@
     </row>
     <row r="2" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>239</v>
+        <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>379</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>240</v>
+        <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>148</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>241</v>
+        <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1898,10 +1886,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFE032D-95F9-43DF-A48A-41082064777A}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD41"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1916,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1924,455 +1912,439 @@
     </row>
     <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>242</v>
+        <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>333</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>243</v>
+        <v>134</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>334</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>244</v>
+        <v>135</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>150</v>
+        <v>329</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>152</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>245</v>
+        <v>136</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>151</v>
+        <v>368</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>153</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>246</v>
+        <v>137</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>335</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>247</v>
+        <v>138</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>336</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>248</v>
+        <v>139</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>337</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>338</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>126</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>250</v>
+        <v>140</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>251</v>
+        <v>141</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>130</v>
+        <v>339</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>128</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>252</v>
+        <v>142</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>131</v>
+        <v>331</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>253</v>
+        <v>143</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>132</v>
+        <v>340</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>134</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>254</v>
+        <v>144</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>133</v>
+        <v>332</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>255</v>
+        <v>145</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>256</v>
+        <v>146</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>137</v>
+        <v>342</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>257</v>
+        <v>147</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>43</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>258</v>
+        <v>148</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>9</v>
+        <v>344</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>44</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>259</v>
+        <v>149</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>10</v>
+        <v>345</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>11</v>
+        <v>346</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>261</v>
+        <v>151</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>347</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>262</v>
+        <v>152</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>13</v>
+        <v>348</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>48</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>263</v>
+        <v>153</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>14</v>
+        <v>349</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>49</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>264</v>
+        <v>154</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>15</v>
+        <v>350</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>265</v>
+        <v>155</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>16</v>
+        <v>351</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>266</v>
+        <v>156</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>17</v>
+        <v>352</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>52</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>267</v>
+        <v>157</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>18</v>
+        <v>353</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>53</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>268</v>
+        <v>158</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>19</v>
+        <v>354</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>54</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>269</v>
+        <v>159</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>20</v>
+        <v>355</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>55</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>21</v>
+        <v>356</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>271</v>
+        <v>161</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>22</v>
+        <v>357</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>57</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>272</v>
+        <v>162</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>23</v>
+        <v>358</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>273</v>
+        <v>163</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>24</v>
+        <v>359</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="B34" s="2" t="s">
-        <v>25</v>
+        <v>360</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>60</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>274</v>
+        <v>165</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>26</v>
+        <v>361</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>275</v>
+        <v>166</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>27</v>
+        <v>362</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>276</v>
+        <v>167</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>28</v>
+        <v>363</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>277</v>
+        <v>168</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>183</v>
+        <v>364</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>278</v>
+        <v>169</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>179</v>
+        <v>365</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>186</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>279</v>
+        <v>170</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>184</v>
+        <v>366</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>280</v>
+        <v>171</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>180</v>
+        <v>367</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>190</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -2388,7 +2360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D51C646-84B6-4AFD-9113-8CA397437E41}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -2401,7 +2373,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2412,209 +2384,209 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>283</v>
+        <v>172</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>167</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>284</v>
+        <v>173</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>192</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>195</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>285</v>
+        <v>174</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>193</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>196</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>286</v>
+        <v>175</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>194</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>197</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>287</v>
+        <v>176</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>198</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>202</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>288</v>
+        <v>177</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>199</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>203</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>289</v>
+        <v>178</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>200</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>204</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>290</v>
+        <v>179</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>201</v>
+        <v>92</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>215</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>291</v>
+        <v>180</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="2" t="s">
-        <v>216</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>292</v>
+        <v>181</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>293</v>
+        <v>182</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>205</v>
+        <v>96</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>207</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>294</v>
+        <v>183</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>206</v>
+        <v>97</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>217</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>295</v>
+        <v>184</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>169</v>
+        <v>72</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>177</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>296</v>
+        <v>185</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>178</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>297</v>
+        <v>186</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>208</v>
+        <v>99</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>171</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>298</v>
+        <v>187</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>209</v>
+        <v>100</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>232</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>299</v>
+        <v>188</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>210</v>
+        <v>101</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>211</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>173</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>301</v>
+        <v>190</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>191</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2643,7 +2615,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2654,101 +2626,101 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>302</v>
+        <v>191</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>303</v>
+        <v>192</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>304</v>
+        <v>193</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>305</v>
+        <v>194</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>306</v>
+        <v>195</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>307</v>
+        <v>196</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>308</v>
+        <v>197</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>309</v>
+        <v>198</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2764,7 +2736,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2776,7 +2748,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2787,156 +2759,156 @@
     </row>
     <row r="2" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>311</v>
+        <v>200</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>162</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>322</v>
+        <v>211</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>95</v>
+        <v>323</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>163</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>165</v>
+        <v>325</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>164</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>324</v>
+        <v>213</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>166</v>
+        <v>327</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>96</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -3072,8 +3044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0343B4AB-EEE2-4D40-9E2F-E8AADFEF4B23}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3085,7 +3057,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3096,236 +3068,236 @@
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>364</v>
+        <v>253</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>347</v>
+        <v>236</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>349</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>366</v>
+        <v>255</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>346</v>
+        <v>235</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>348</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>365</v>
+        <v>254</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>350</v>
+        <v>239</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>352</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>367</v>
+        <v>256</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>351</v>
+        <v>240</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>353</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>368</v>
+        <v>257</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>213</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>225</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>370</v>
+        <v>258</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>354</v>
+        <v>243</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>356</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>371</v>
+        <v>259</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>355</v>
+        <v>244</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>357</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>369</v>
+        <v>260</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>214</v>
+        <v>105</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>226</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>372</v>
+        <v>261</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>218</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>236</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>373</v>
+        <v>262</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>200</v>
+        <v>91</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>204</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>374</v>
+        <v>263</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>219</v>
+        <v>110</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>227</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>375</v>
+        <v>264</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>220</v>
+        <v>111</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>228</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>376</v>
+        <v>265</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>358</v>
+        <v>247</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>360</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>377</v>
+        <v>266</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>359</v>
+        <v>248</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>361</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>378</v>
+        <v>267</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>221</v>
+        <v>112</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>229</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>379</v>
+        <v>268</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>222</v>
+        <v>113</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>230</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>380</v>
+        <v>269</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>223</v>
+        <v>114</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>381</v>
+        <v>270</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>362</v>
+        <v>251</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>233</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>382</v>
+        <v>271</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>210</v>
+        <v>101</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>211</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>383</v>
+        <v>272</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>363</v>
+        <v>252</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>234</v>
+        <v>125</v>
       </c>
       <c r="G21" t="s">
-        <v>237</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>384</v>
+        <v>273</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>224</v>
+        <v>115</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>235</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -3375,7 +3347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F5AF14-B854-48BD-B5F0-E1DDD1E9BCDA}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -3388,7 +3360,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3399,236 +3371,236 @@
     </row>
     <row r="2" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>325</v>
+        <v>214</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>326</v>
+        <v>215</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>327</v>
+        <v>216</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>328</v>
+        <v>217</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>329</v>
+        <v>218</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>330</v>
+        <v>219</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>331</v>
+        <v>220</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>212</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>332</v>
+        <v>221</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>333</v>
+        <v>222</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>238</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>334</v>
+        <v>223</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>335</v>
+        <v>224</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>337</v>
+        <v>226</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>338</v>
+        <v>227</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>339</v>
+        <v>228</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>340</v>
+        <v>229</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>341</v>
+        <v>230</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>342</v>
+        <v>231</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>343</v>
+        <v>232</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>121</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>344</v>
+        <v>233</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>345</v>
+        <v>234</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Texts/Texts.xlsx
+++ b/Assets/Texts/Texts.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECF7271-1FA6-4B08-B7FB-7D35D421CFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{A92B82CA-84D7-4871-BE57-FF21B6B2E3C0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A92B82CA-84D7-4871-BE57-FF21B6B2E3C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -1280,7 +1280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1294,23 +1294,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="27">
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1341,6 +1329,21 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1397,13 +1400,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1419,12 +1416,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{430F41CE-8D11-4588-AB14-FAD1300FB781}" name="Tabla2" displayName="Tabla2" ref="A1:C4" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{430F41CE-8D11-4588-AB14-FAD1300FB781}" name="Tabla2" displayName="Tabla2" ref="A1:C4" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:C4" xr:uid="{430F41CE-8D11-4588-AB14-FAD1300FB781}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7F563443-CF3D-441F-B3FC-DDC2989B6985}" name="ID" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{78865998-EC52-4C56-9A04-6622A9AF6FB5}" name="ESP2" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{F2130385-BCAE-4446-BE2E-F14BAA17B9DD}" name="ENG" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{7F563443-CF3D-441F-B3FC-DDC2989B6985}" name="ID" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{78865998-EC52-4C56-9A04-6622A9AF6FB5}" name="ESP2" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{F2130385-BCAE-4446-BE2E-F14BAA17B9DD}" name="ENG" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1434,9 +1431,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF4A900D-949A-4776-9EEB-08D3097024FF}" name="Tabla1" displayName="Tabla1" ref="A1:C41" totalsRowShown="0">
   <autoFilter ref="A1:C41" xr:uid="{FF4A900D-949A-4776-9EEB-08D3097024FF}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6967BB4A-30C2-43B6-9CB2-28E7189BA6E3}" name="ESP" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{7E2A380B-189B-40FA-A9F1-7C8D445FF207}" name="ESP2" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{43E3BF63-9BF4-4AC8-B8F8-674E6D06910D}" name="ENG" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{6967BB4A-30C2-43B6-9CB2-28E7189BA6E3}" name="ESP" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{7E2A380B-189B-40FA-A9F1-7C8D445FF207}" name="ESP2" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{43E3BF63-9BF4-4AC8-B8F8-674E6D06910D}" name="ENG" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1446,33 +1443,33 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9B45A656-F700-46E1-8873-F55BB2B814F7}" name="Tabla6" displayName="Tabla6" ref="A1:C20" totalsRowShown="0">
   <autoFilter ref="A1:C20" xr:uid="{9B45A656-F700-46E1-8873-F55BB2B814F7}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DC263509-58B2-4E96-97BC-5141AE9E20C1}" name="ID" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{B9748C0B-2805-4DD4-96BD-21DC38535CF9}" name="ESP" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{D68444E6-D518-4BD7-8612-43C23488AE7F}" name="ENG" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{DC263509-58B2-4E96-97BC-5141AE9E20C1}" name="ID" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{B9748C0B-2805-4DD4-96BD-21DC38535CF9}" name="ESP" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{D68444E6-D518-4BD7-8612-43C23488AE7F}" name="ENG" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{286C4389-7C8C-4B9E-B4B9-9F82B2FD62A6}" name="Tabla3" displayName="Tabla3" ref="A1:C10" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{286C4389-7C8C-4B9E-B4B9-9F82B2FD62A6}" name="Tabla3" displayName="Tabla3" ref="A1:C10" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:C10" xr:uid="{286C4389-7C8C-4B9E-B4B9-9F82B2FD62A6}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{15CB8B6B-B6FB-4304-ABDA-AE8254F6C792}" name="ID" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{AE1AA87D-06B0-4D7D-A3FE-230B3D442450}" name="ESP" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{ECA1BE4B-B0B2-494D-999B-67074995A330}" name="ENG" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{15CB8B6B-B6FB-4304-ABDA-AE8254F6C792}" name="ID" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{AE1AA87D-06B0-4D7D-A3FE-230B3D442450}" name="ESP" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{ECA1BE4B-B0B2-494D-999B-67074995A330}" name="ENG" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6BEF665A-6D46-419E-8D30-7941B6E47772}" name="Tabla4" displayName="Tabla4" ref="A1:C15" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6BEF665A-6D46-419E-8D30-7941B6E47772}" name="Tabla4" displayName="Tabla4" ref="A1:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:C15" xr:uid="{6BEF665A-6D46-419E-8D30-7941B6E47772}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4548EBBF-AD72-47DF-A0E1-F13E9938E4BE}" name="ID" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{BC762B95-9229-4621-B9AA-CEA800FFED28}" name="ESP" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{5B2FECB2-5AE3-4BD9-B4C1-6DF533A65A1C}" name="ENG" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{4548EBBF-AD72-47DF-A0E1-F13E9938E4BE}" name="ID" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{BC762B95-9229-4621-B9AA-CEA800FFED28}" name="ESP" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{5B2FECB2-5AE3-4BD9-B4C1-6DF533A65A1C}" name="ENG" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1482,9 +1479,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7FFFA032-E4FC-4116-A851-7E1923A6BFA8}" name="Tabla7" displayName="Tabla7" ref="A1:C22" totalsRowShown="0">
   <autoFilter ref="A1:C22" xr:uid="{7FFFA032-E4FC-4116-A851-7E1923A6BFA8}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AC92302A-5C68-4254-819B-35617C8DCA81}" name="ID" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{DB64FBCE-1660-412A-A532-60D5A69CB864}" name="ESP" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{568AD37E-6CD6-4395-A3D0-CF48D6A83821}" name="ENG" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{AC92302A-5C68-4254-819B-35617C8DCA81}" name="ID" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{DB64FBCE-1660-412A-A532-60D5A69CB864}" name="ESP" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{568AD37E-6CD6-4395-A3D0-CF48D6A83821}" name="ENG" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1494,9 +1491,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FB449534-BC40-434A-ADF4-6DC749DE82A8}" name="Tabla5" displayName="Tabla5" ref="A1:C22" totalsRowShown="0">
   <autoFilter ref="A1:C22" xr:uid="{FB449534-BC40-434A-ADF4-6DC749DE82A8}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{18C7102A-848D-4628-9A69-1C4A1C625D46}" name="ID" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{5C472F6A-4C8C-4564-9522-87D0FAD45731}" name="ESP" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{4D2792A8-85EA-4DDA-825C-3D661B9BBAFC}" name="ENG" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{18C7102A-848D-4628-9A69-1C4A1C625D46}" name="ID" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{5C472F6A-4C8C-4564-9522-87D0FAD45731}" name="ESP" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{4D2792A8-85EA-4DDA-825C-3D661B9BBAFC}" name="ENG" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1821,7 +1818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E2310D-9527-4D36-BE66-4C333F79611A}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1987,7 +1984,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>274</v>
       </c>
@@ -2314,7 +2311,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>169</v>
       </c>
@@ -3044,7 +3041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0343B4AB-EEE2-4D40-9E2F-E8AADFEF4B23}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -3081,7 +3078,7 @@
       <c r="A3" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>235</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -3103,7 +3100,7 @@
       <c r="A5" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>240</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -3136,7 +3133,7 @@
       <c r="A8" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -3213,7 +3210,7 @@
       <c r="A15" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>248</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -3347,7 +3344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F5AF14-B854-48BD-B5F0-E1DDD1E9BCDA}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
